--- a/6年计划.xlsx
+++ b/6年计划.xlsx
@@ -156,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,6 +171,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -179,54 +231,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -239,29 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,7 +292,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,23 +300,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,6 +323,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -335,6 +371,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,7 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -365,37 +473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,55 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,43 +497,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,26 +519,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,6 +565,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -582,35 +589,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,145 +622,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,8 +1092,8 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1521,6 +1521,21 @@
     <row r="34" spans="1:1">
       <c r="A34">
         <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="8:8">

--- a/6年计划.xlsx
+++ b/6年计划.xlsx
@@ -157,8 +157,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -178,62 +178,124 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,70 +313,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,19 +323,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,55 +479,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,103 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -514,6 +520,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -541,54 +597,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -606,11 +614,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,10 +628,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,142 +640,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1092,8 +1101,8 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1118,8 +1127,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1127,6 +1136,9 @@
       </c>
       <c r="F2" t="s">
         <v>6</v>
+      </c>
+      <c r="H2">
+        <v>2017</v>
       </c>
     </row>
     <row r="3" spans="1:7">

--- a/6年计划.xlsx
+++ b/6年计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
   <si>
     <t>序号</t>
   </si>
@@ -148,7 +148,10 @@
     <t>去广州找hzw</t>
   </si>
   <si>
-    <t>2017.10.08第一版本</t>
+    <t>打耳洞</t>
+  </si>
+  <si>
+    <t>剪一次短发</t>
   </si>
 </sst>
 </file>
@@ -156,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -184,8 +187,86 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,14 +281,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,100 +296,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,13 +332,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,169 +476,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,45 +523,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -576,23 +540,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,6 +579,45 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -628,10 +631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +643,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1525,14 +1528,32 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
+      <c r="B33" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34">
+        <v>2017</v>
       </c>
     </row>
     <row r="35" spans="1:1">
@@ -1548,11 +1569,6 @@
     <row r="37" spans="1:1">
       <c r="A37">
         <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="8:8">
-      <c r="H40" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/6年计划.xlsx
+++ b/6年计划.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>序号</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>剪一次短发</t>
+  </si>
+  <si>
+    <t>和zcx去杭州跨年</t>
+  </si>
+  <si>
+    <t>和zcx在上海跨年</t>
+  </si>
+  <si>
+    <t>读完时间简史英文版</t>
   </si>
 </sst>
 </file>
@@ -180,10 +189,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,15 +266,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,6 +289,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -235,76 +313,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,187 +341,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,17 +532,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,16 +545,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,39 +591,35 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,133 +652,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,10 +1111,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1542,8 +1551,8 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
+    <row r="34" spans="1:8">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1555,20 +1564,70 @@
       <c r="G34">
         <v>2017</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
+      <c r="H34">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
+      <c r="B35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>36</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
